--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3927.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3927.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.468519278399764</v>
+        <v>0.6881498098373413</v>
       </c>
       <c r="B1">
-        <v>2.368645656436213</v>
+        <v>0.730939507484436</v>
       </c>
       <c r="C1">
-        <v>6.195544877250593</v>
+        <v>1.243634343147278</v>
       </c>
       <c r="D1">
-        <v>4.01688310533543</v>
+        <v>2.134048461914062</v>
       </c>
       <c r="E1">
-        <v>1.079671632610137</v>
+        <v>2.71191668510437</v>
       </c>
     </row>
   </sheetData>
